--- a/编码/字母和数字映射.xlsx
+++ b/编码/字母和数字映射.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>本映射用来记忆要点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,50 @@
   </si>
   <si>
     <t>三鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~9数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拐杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球拍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -655,257 +699,438 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H9" s="1">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K9" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H21" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/编码/字母和数字映射.xlsx
+++ b/编码/字母和数字映射.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>本映射用来记忆要点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-30数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +328,34 @@
   </si>
   <si>
     <t>球拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本映射用来记忆要点（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已废弃，请勿参考！！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +373,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -687,19 +720,19 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -735,34 +768,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -794,7 +827,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -843,130 +876,130 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -988,29 +1021,29 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1032,25 +1065,25 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1072,22 +1105,22 @@
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1110,22 +1143,22 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
